--- a/results/TGS/DmLc3.net.stats.xlsx
+++ b/results/TGS/DmLc3.net.stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="1" state="visible" r:id="rId2"/>
@@ -424,13 +424,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -615,9 +615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -627,7 +627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600480" y="153000"/>
-          <a:ext cx="8216640" cy="15197760"/>
+          <a:ext cx="8216280" cy="15197400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -650,2307 +650,1358 @@
         <a:bodyPr lIns="18000" rIns="18000" tIns="18000" bIns="18000"/>
         <a:p>
           <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Note:</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> In an Ubuntu 16.04.2 LTS (codename: xenial) 64 bit computer, Cytoscape 3.4.0 is used to generate the network statistics. First the required networks are imported into Cytoscape. In order to do so, the network adjacency matrices, which are R objects, are converted into Cytoscape compatible SIF file using ‘repoTGS/RDataToCytoscape.R::adjmxToSif()’ function. While importing the network SIF files into Cytoscape, a new network collection is created for each file. Otherwise, Cytoscape displays erroneous network statistics. Once imported, one network is selected at a time and its network statistics are generated with the Cytoscape plugin ‘NetworkAnalyzer’ (http://manual.cytoscape.org/en/stable/Network_Analyzer.html)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> In an Ubuntu 16.04.2 LTS (codename: xenial) 64 bit computer, Cytoscape 3.4.0 is used to generate the network statistics. First the required networks are imported into Cytoscape. In order to do so, the network adjacency matrices, which are R objects, are converted into Cytoscape compatible SIF file using ‘repotgsr/RDataToCytoscape.R::adjmxToSif()’ function. While importing the network SIF files into Cytoscape, a new network collection is created for each file. Otherwise, Cytoscape displays erroneous network statistics. Once imported, one network is selected at a time and its network statistics are generated with the Cytoscape plugin ‘NetworkAnalyzer’ (http://manual.cytoscape.org/en/stable/Network_Analyzer.html)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t> In ‘NetworkAnalyzer’, option ‘Treat the network as directed’ is selected; unless the network has no edges, in which case, the network is automatically treated as undirected. The definitions of the network statistics parameters used are provided at: http://med.bioinf.mpi-inf.mpg.de/netanalyzer/help/2.6.1/ . Note that it seems that NetworkAnalyzer rounds up the network densities to zero even when there are a positive number of edges in the networks. The actual value of network density in a directed network should be the ratio of number of edges to the possible number of edges, where the possible number of edges is square of the number of nodes. </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>The Cytoscape session is saved in ‘DmLc3NetEval.cys’. The corresponding network adjacency matrices are saved in ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Worksheet ‘Intra-stage’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Each column, except the ‘Parameter’ column, represents Cytoscape network statistics of a particular network, identified by the column header, e.g., ‘E.1’. Networks ‘E.1’, ‘E.2’, ‘E.3’, ‘E.4’ and ‘E.5’ represent the predicted Gene Regulatory Networks (GRNs) in the Drosophila melanogaster (Dm) Embryo (E) stage at different time intervals. ‘E.1’ corresponds to the predicted GRN during the time interval between the first time point and the second time point. Similarly, ‘E.2’ corresponds to the predicted GRN during the time interval between the second and the third time point. Therefore, the first letter and the last digit (if any) of a network ID represent the Dm life cycle stage ID and the time interval ID inside that stage, respectively, that are represented by the corresponding network. If a network ID has only stage ID and no time interval ID, then the corresponding stage has a single time interval (i.e. only two time points), which is represented by that network. L, P and A stand for the larval, pupal and adult stages.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>1) Column ‘E.1’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.1’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.1.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2) Column ‘E.2’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.2’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.2.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>3) Column ‘E.3’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.3’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.3.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>4) Column ‘E.4’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.4’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.4.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>5) Column ‘E.5’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.5’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.5.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>6) Column ‘L’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.L’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913180657.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>7) Column ‘P.1’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.P.1’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913200300.1.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>8) Column ‘P.2’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.P.2’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913203923.2.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>9) Column ‘A’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.A’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913203923.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Worksheet ‘Inter-stage’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Each column, except the ‘Parameter’ column, represents Cytoscape network statistics of a particular network, identified by the column header, e.g., ‘E’. Networks ‘E’, ‘L’, ‘P’ and ‘A’ represent the predicted GRNs corresponding to the Dm life cycle stages: Embryonic (E), larval (L), Pupal (P) and Adult (A), respectively. If there are multiple GRNs inside a stage, then all such networks are combined through the union operation to generate the single representative GRN for that stage; for example, there are five networks in E stage; see the description for Worksheet ‘Intra-stage’; these networks are combined to produce the ‘E’ network.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>1) Column ‘E’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2) Column ‘L’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.L’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913180657.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>3) Column ‘P’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.P’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913200300.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>4) Column ‘A’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.A’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913203923.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Worksheet ‘Intra-stage Intersect’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>There are multiple GRNs in each of the E (5 GRNs) and P (2 GRNs) stages. For each such stage, a single GRN is generated through the intersection operation between the GRNs belonging to that stage. The network statistics of the intersection GRN corresponding to each of the E and P stages are presented in this worksheet.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>1) Intersection GRN of the E stage:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.E.intra.stage.intersect’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.intersect.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2) Intersection GRN of the P stage:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.P.intra.stage.intersect’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913200300.intersect.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Worksheet ‘Inter-stage Intersect’:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>1) Column ‘EL’: Network statistics of the GRN generated through the intersection of the E stage network with the L stage network.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.EL’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.20170913180657.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2) Columns ‘LP’: Network statistics of the GRN generated through the intersection of the L stage network with the P stage network.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.LP’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913180657.20170913200300.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>3) Columns ‘PA’: Network statistics of the GRN generated through the intersection of the P stage network with the A stage network.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.PA’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170913200300.20170913203923.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>4) Column ‘ELPA’: Network statistics of the GRN generated through the intersection between the networks corresponding to E, L, P and A stages.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.ELPA’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.20170913180657.20170913200300.20170913203923.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>5) Columns ‘EP’: Network statistics of the GRN generated through the intersection of the E stage network with the P stage network.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Network adjacency matrix: R object ‘di.net.adj.matrix.EP’ inside RData file  ‘sess.eval.RData’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>Netork Cytoscape file: ‘di.net.20170908045031.20170913200300.sif’ inside the Cytoscape session file ‘DmLc3NetEval.cys’.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2968,18 +2019,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2995,16 +2046,16 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +2765,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3729,14 +2780,15 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,7 +3168,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4131,14 +3183,15 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +3439,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4401,14 +3454,15 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4132653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +3908,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4869,16 +3923,16 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +4048,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
